--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>question7-label</t>
+  </si>
+  <si>
+    <t>Autre Prop</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -678,7 +683,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -723,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -41,12 +41,6 @@
     <t>label_for_cases_fra</t>
   </si>
   <si>
-    <t>icon_filepath</t>
-  </si>
-  <si>
-    <t>audio_filepath</t>
-  </si>
-  <si>
     <t>unique_id</t>
   </si>
   <si>
@@ -186,16 +180,35 @@
   </si>
   <si>
     <t>Autre Prop</t>
+  </si>
+  <si>
+    <t>icon_filepath_en</t>
+  </si>
+  <si>
+    <t>audio_filepath_en</t>
+  </si>
+  <si>
+    <t>icon_filepath_fra</t>
+  </si>
+  <si>
+    <t>audio_filepath_fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,8 +234,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,13 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,71 +559,77 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -624,18 +646,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -646,72 +668,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -748,254 +770,254 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" activeTab="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
-    <sheet name="module1" sheetId="2" r:id="rId2"/>
-    <sheet name="module1_form1" sheetId="3" r:id="rId3"/>
+    <sheet name="Modules_and_forms" r:id="rId1" sheetId="1"/>
+    <sheet name="module1" r:id="rId2" sheetId="2"/>
+    <sheet name="module1_form1" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -83,7 +79,7 @@
     <t>module1</t>
   </si>
   <si>
-    <t>My awesome module</t>
+    <t>My &amp; awesome module</t>
   </si>
   <si>
     <t/>
@@ -101,33 +97,57 @@
     <t>module1_form1</t>
   </si>
   <si>
-    <t>My more awesome form</t>
-  </si>
-  <si>
-    <t>b520962ce89ca506c5851b8bcdf88ccd16876f4</t>
+    <t>My more &amp; awesome form</t>
+  </si>
+  <si>
+    <t>93ea2a40df57d8f33b472f5b2b023882281722d4</t>
+  </si>
+  <si>
+    <t>question1-label</t>
   </si>
   <si>
     <t>question1</t>
   </si>
   <si>
+    <t>question2-label</t>
+  </si>
+  <si>
     <t>question2</t>
   </si>
   <si>
+    <t>question2-item1-label</t>
+  </si>
+  <si>
     <t>item1</t>
   </si>
   <si>
+    <t>question2-item2-label</t>
+  </si>
+  <si>
     <t>item2</t>
   </si>
   <si>
+    <t>question3-label</t>
+  </si>
+  <si>
     <t>question3</t>
   </si>
   <si>
+    <t>question3/question4-label</t>
+  </si>
+  <si>
     <t>question4</t>
   </si>
   <si>
+    <t>question3/question5-label</t>
+  </si>
+  <si>
     <t>question5</t>
   </si>
   <si>
+    <t>question7-label</t>
+  </si>
+  <si>
     <t>question7</t>
   </si>
   <si>
@@ -149,6 +169,9 @@
     <t>Other Prop</t>
   </si>
   <si>
+    <t>Autre Prop</t>
+  </si>
+  <si>
     <t>foo (ID Mapping Value)</t>
   </si>
   <si>
@@ -159,40 +182,16 @@
   </si>
   <si>
     <t>quz</t>
-  </si>
-  <si>
-    <t>question1-label</t>
-  </si>
-  <si>
-    <t>question2-label</t>
-  </si>
-  <si>
-    <t>question2-item1-label</t>
-  </si>
-  <si>
-    <t>question2-item2-label</t>
-  </si>
-  <si>
-    <t>question3-label</t>
-  </si>
-  <si>
-    <t>question3/question4-label</t>
-  </si>
-  <si>
-    <t>question3/question5-label</t>
-  </si>
-  <si>
-    <t>question7-label</t>
-  </si>
-  <si>
-    <t>Autre Prop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,309 +218,315 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+<ns0:theme xmlns:ns0="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <ns0:themeElements>
+    <ns0:clrScheme name="Office">
+      <ns0:dk1>
+        <ns0:sysClr lastClr="000000" val="windowText"/>
+      </ns0:dk1>
+      <ns0:lt1>
+        <ns0:sysClr lastClr="FFFFFF" val="window"/>
+      </ns0:lt1>
+      <ns0:dk2>
+        <ns0:srgbClr val="1F497D"/>
+      </ns0:dk2>
+      <ns0:lt2>
+        <ns0:srgbClr val="EEECE1"/>
+      </ns0:lt2>
+      <ns0:accent1>
+        <ns0:srgbClr val="4F81BD"/>
+      </ns0:accent1>
+      <ns0:accent2>
+        <ns0:srgbClr val="C0504D"/>
+      </ns0:accent2>
+      <ns0:accent3>
+        <ns0:srgbClr val="9BBB59"/>
+      </ns0:accent3>
+      <ns0:accent4>
+        <ns0:srgbClr val="8064A2"/>
+      </ns0:accent4>
+      <ns0:accent5>
+        <ns0:srgbClr val="4BACC6"/>
+      </ns0:accent5>
+      <ns0:accent6>
+        <ns0:srgbClr val="F79646"/>
+      </ns0:accent6>
+      <ns0:hlink>
+        <ns0:srgbClr val="0000FF"/>
+      </ns0:hlink>
+      <ns0:folHlink>
+        <ns0:srgbClr val="800080"/>
+      </ns0:folHlink>
+    </ns0:clrScheme>
+    <ns0:fontScheme name="Office">
+      <ns0:majorFont>
+        <ns0:latin typeface="Cambria"/>
+        <ns0:ea typeface=""/>
+        <ns0:cs typeface=""/>
+        <ns0:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <ns0:font script="Hang" typeface="맑은 고딕"/>
+        <ns0:font script="Hans" typeface="宋体"/>
+        <ns0:font script="Hant" typeface="新細明體"/>
+        <ns0:font script="Arab" typeface="Times New Roman"/>
+        <ns0:font script="Hebr" typeface="Times New Roman"/>
+        <ns0:font script="Thai" typeface="Tahoma"/>
+        <ns0:font script="Ethi" typeface="Nyala"/>
+        <ns0:font script="Beng" typeface="Vrinda"/>
+        <ns0:font script="Gujr" typeface="Shruti"/>
+        <ns0:font script="Khmr" typeface="MoolBoran"/>
+        <ns0:font script="Knda" typeface="Tunga"/>
+        <ns0:font script="Guru" typeface="Raavi"/>
+        <ns0:font script="Cans" typeface="Euphemia"/>
+        <ns0:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <ns0:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <ns0:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <ns0:font script="Thaa" typeface="MV Boli"/>
+        <ns0:font script="Deva" typeface="Mangal"/>
+        <ns0:font script="Telu" typeface="Gautami"/>
+        <ns0:font script="Taml" typeface="Latha"/>
+        <ns0:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <ns0:font script="Orya" typeface="Kalinga"/>
+        <ns0:font script="Mlym" typeface="Kartika"/>
+        <ns0:font script="Laoo" typeface="DokChampa"/>
+        <ns0:font script="Sinh" typeface="Iskoola Pota"/>
+        <ns0:font script="Mong" typeface="Mongolian Baiti"/>
+        <ns0:font script="Viet" typeface="Times New Roman"/>
+        <ns0:font script="Uigh" typeface="Microsoft Uighur"/>
+      </ns0:majorFont>
+      <ns0:minorFont>
+        <ns0:latin typeface="Calibri"/>
+        <ns0:ea typeface=""/>
+        <ns0:cs typeface=""/>
+        <ns0:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <ns0:font script="Hang" typeface="맑은 고딕"/>
+        <ns0:font script="Hans" typeface="宋体"/>
+        <ns0:font script="Hant" typeface="新細明體"/>
+        <ns0:font script="Arab" typeface="Arial"/>
+        <ns0:font script="Hebr" typeface="Arial"/>
+        <ns0:font script="Thai" typeface="Tahoma"/>
+        <ns0:font script="Ethi" typeface="Nyala"/>
+        <ns0:font script="Beng" typeface="Vrinda"/>
+        <ns0:font script="Gujr" typeface="Shruti"/>
+        <ns0:font script="Khmr" typeface="DaunPenh"/>
+        <ns0:font script="Knda" typeface="Tunga"/>
+        <ns0:font script="Guru" typeface="Raavi"/>
+        <ns0:font script="Cans" typeface="Euphemia"/>
+        <ns0:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <ns0:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <ns0:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <ns0:font script="Thaa" typeface="MV Boli"/>
+        <ns0:font script="Deva" typeface="Mangal"/>
+        <ns0:font script="Telu" typeface="Gautami"/>
+        <ns0:font script="Taml" typeface="Latha"/>
+        <ns0:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <ns0:font script="Orya" typeface="Kalinga"/>
+        <ns0:font script="Mlym" typeface="Kartika"/>
+        <ns0:font script="Laoo" typeface="DokChampa"/>
+        <ns0:font script="Sinh" typeface="Iskoola Pota"/>
+        <ns0:font script="Mong" typeface="Mongolian Baiti"/>
+        <ns0:font script="Viet" typeface="Arial"/>
+        <ns0:font script="Uigh" typeface="Microsoft Uighur"/>
+      </ns0:minorFont>
+    </ns0:fontScheme>
+    <ns0:fmtScheme name="Office">
+      <ns0:fillStyleLst>
+        <ns0:solidFill>
+          <ns0:schemeClr val="phClr"/>
+        </ns0:solidFill>
+        <ns0:gradFill rotWithShape="1">
+          <ns0:gsLst>
+            <ns0:gs pos="0">
+              <ns0:schemeClr val="phClr">
+                <ns0:tint val="50000"/>
+                <ns0:satMod val="300000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+            <ns0:gs pos="35000">
+              <ns0:schemeClr val="phClr">
+                <ns0:tint val="37000"/>
+                <ns0:satMod val="300000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+            <ns0:gs pos="100000">
+              <ns0:schemeClr val="phClr">
+                <ns0:tint val="15000"/>
+                <ns0:satMod val="350000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+          </ns0:gsLst>
+          <ns0:lin ang="16200000" scaled="1"/>
+        </ns0:gradFill>
+        <ns0:gradFill rotWithShape="1">
+          <ns0:gsLst>
+            <ns0:gs pos="0">
+              <ns0:schemeClr val="phClr">
+                <ns0:shade val="51000"/>
+                <ns0:satMod val="130000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+            <ns0:gs pos="80000">
+              <ns0:schemeClr val="phClr">
+                <ns0:shade val="93000"/>
+                <ns0:satMod val="130000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+            <ns0:gs pos="100000">
+              <ns0:schemeClr val="phClr">
+                <ns0:shade val="94000"/>
+                <ns0:satMod val="135000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+          </ns0:gsLst>
+          <ns0:lin ang="16200000" scaled="0"/>
+        </ns0:gradFill>
+      </ns0:fillStyleLst>
+      <ns0:lnStyleLst>
+        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <ns0:solidFill>
+            <ns0:schemeClr val="phClr">
+              <ns0:shade val="95000"/>
+              <ns0:satMod val="105000"/>
+            </ns0:schemeClr>
+          </ns0:solidFill>
+          <ns0:prstDash val="solid"/>
+        </ns0:ln>
+        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+          <ns0:solidFill>
+            <ns0:schemeClr val="phClr"/>
+          </ns0:solidFill>
+          <ns0:prstDash val="solid"/>
+        </ns0:ln>
+        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+          <ns0:solidFill>
+            <ns0:schemeClr val="phClr"/>
+          </ns0:solidFill>
+          <ns0:prstDash val="solid"/>
+        </ns0:ln>
+      </ns0:lnStyleLst>
+      <ns0:effectStyleLst>
+        <ns0:effectStyle>
+          <ns0:effectLst>
+            <ns0:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+              <ns0:srgbClr val="000000">
+                <ns0:alpha val="38000"/>
+              </ns0:srgbClr>
+            </ns0:outerShdw>
+          </ns0:effectLst>
+        </ns0:effectStyle>
+        <ns0:effectStyle>
+          <ns0:effectLst>
+            <ns0:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <ns0:srgbClr val="000000">
+                <ns0:alpha val="35000"/>
+              </ns0:srgbClr>
+            </ns0:outerShdw>
+          </ns0:effectLst>
+        </ns0:effectStyle>
+        <ns0:effectStyle>
+          <ns0:effectLst>
+            <ns0:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <ns0:srgbClr val="000000">
+                <ns0:alpha val="35000"/>
+              </ns0:srgbClr>
+            </ns0:outerShdw>
+          </ns0:effectLst>
+          <ns0:scene3d>
+            <ns0:camera prst="orthographicFront">
+              <ns0:rot lat="0" lon="0" rev="0"/>
+            </ns0:camera>
+            <ns0:lightRig dir="t" rig="threePt">
+              <ns0:rot lat="0" lon="0" rev="1200000"/>
+            </ns0:lightRig>
+          </ns0:scene3d>
+          <ns0:sp3d>
+            <ns0:bevelT h="25400" w="63500"/>
+          </ns0:sp3d>
+        </ns0:effectStyle>
+      </ns0:effectStyleLst>
+      <ns0:bgFillStyleLst>
+        <ns0:solidFill>
+          <ns0:schemeClr val="phClr"/>
+        </ns0:solidFill>
+        <ns0:gradFill rotWithShape="1">
+          <ns0:gsLst>
+            <ns0:gs pos="0">
+              <ns0:schemeClr val="phClr">
+                <ns0:tint val="40000"/>
+                <ns0:satMod val="350000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+            <ns0:gs pos="40000">
+              <ns0:schemeClr val="phClr">
+                <ns0:tint val="45000"/>
+                <ns0:shade val="99000"/>
+                <ns0:satMod val="350000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+            <ns0:gs pos="100000">
+              <ns0:schemeClr val="phClr">
+                <ns0:shade val="20000"/>
+                <ns0:satMod val="255000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+          </ns0:gsLst>
+          <ns0:path path="circle">
+            <ns0:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </ns0:path>
+        </ns0:gradFill>
+        <ns0:gradFill rotWithShape="1">
+          <ns0:gsLst>
+            <ns0:gs pos="0">
+              <ns0:schemeClr val="phClr">
+                <ns0:tint val="80000"/>
+                <ns0:satMod val="300000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+            <ns0:gs pos="100000">
+              <ns0:schemeClr val="phClr">
+                <ns0:shade val="30000"/>
+                <ns0:satMod val="200000"/>
+              </ns0:schemeClr>
+            </ns0:gs>
+          </ns0:gsLst>
+          <ns0:path path="circle">
+            <ns0:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </ns0:path>
+        </ns0:gradFill>
+      </ns0:bgFillStyleLst>
+    </ns0:fmtScheme>
+  </ns0:themeElements>
+  <ns0:objectDefaults/>
+  <ns0:extraClrSchemeLst/>
+</ns0:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -611,24 +616,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -646,13 +648,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -660,13 +662,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -674,27 +676,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -702,40 +704,34 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -768,13 +764,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -797,13 +793,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -826,13 +822,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -855,13 +851,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -884,13 +880,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -913,13 +909,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -942,13 +938,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -971,13 +967,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -999,11 +995,5 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/basic/upload_no_change.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules_and_forms" r:id="rId1" sheetId="1"/>
-    <sheet name="module1" r:id="rId2" sheetId="2"/>
-    <sheet name="module1_form1" r:id="rId3" sheetId="3"/>
+    <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
+    <sheet name="module1" sheetId="2" r:id="rId2"/>
+    <sheet name="module1_form1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -79,7 +83,7 @@
     <t>module1</t>
   </si>
   <si>
-    <t>My &amp; awesome module</t>
+    <t>My awesome module</t>
   </si>
   <si>
     <t/>
@@ -97,101 +101,98 @@
     <t>module1_form1</t>
   </si>
   <si>
-    <t>My more &amp; awesome form</t>
-  </si>
-  <si>
-    <t>93ea2a40df57d8f33b472f5b2b023882281722d4</t>
+    <t>My more awesome form</t>
+  </si>
+  <si>
+    <t>b520962ce89ca506c5851b8bcdf88ccd16876f4</t>
+  </si>
+  <si>
+    <t>question1</t>
+  </si>
+  <si>
+    <t>question2</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>question3</t>
+  </si>
+  <si>
+    <t>question4</t>
+  </si>
+  <si>
+    <t>question5</t>
+  </si>
+  <si>
+    <t>question7</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>other-prop (ID Mapping Text)</t>
+  </si>
+  <si>
+    <t>Other Prop</t>
+  </si>
+  <si>
+    <t>foo (ID Mapping Value)</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>baz (ID Mapping Value)</t>
+  </si>
+  <si>
+    <t>quz</t>
   </si>
   <si>
     <t>question1-label</t>
   </si>
   <si>
-    <t>question1</t>
-  </si>
-  <si>
     <t>question2-label</t>
   </si>
   <si>
-    <t>question2</t>
-  </si>
-  <si>
     <t>question2-item1-label</t>
   </si>
   <si>
-    <t>item1</t>
-  </si>
-  <si>
     <t>question2-item2-label</t>
   </si>
   <si>
-    <t>item2</t>
-  </si>
-  <si>
     <t>question3-label</t>
   </si>
   <si>
-    <t>question3</t>
-  </si>
-  <si>
     <t>question3/question4-label</t>
   </si>
   <si>
-    <t>question4</t>
-  </si>
-  <si>
     <t>question3/question5-label</t>
   </si>
   <si>
-    <t>question5</t>
-  </si>
-  <si>
     <t>question7-label</t>
   </si>
   <si>
-    <t>question7</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>other-prop (ID Mapping Text)</t>
-  </si>
-  <si>
-    <t>Other Prop</t>
-  </si>
-  <si>
     <t>Autre Prop</t>
-  </si>
-  <si>
-    <t>foo (ID Mapping Value)</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>baz (ID Mapping Value)</t>
-  </si>
-  <si>
-    <t>quz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,315 +219,309 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:theme xmlns:ns0="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <ns0:themeElements>
-    <ns0:clrScheme name="Office">
-      <ns0:dk1>
-        <ns0:sysClr lastClr="000000" val="windowText"/>
-      </ns0:dk1>
-      <ns0:lt1>
-        <ns0:sysClr lastClr="FFFFFF" val="window"/>
-      </ns0:lt1>
-      <ns0:dk2>
-        <ns0:srgbClr val="1F497D"/>
-      </ns0:dk2>
-      <ns0:lt2>
-        <ns0:srgbClr val="EEECE1"/>
-      </ns0:lt2>
-      <ns0:accent1>
-        <ns0:srgbClr val="4F81BD"/>
-      </ns0:accent1>
-      <ns0:accent2>
-        <ns0:srgbClr val="C0504D"/>
-      </ns0:accent2>
-      <ns0:accent3>
-        <ns0:srgbClr val="9BBB59"/>
-      </ns0:accent3>
-      <ns0:accent4>
-        <ns0:srgbClr val="8064A2"/>
-      </ns0:accent4>
-      <ns0:accent5>
-        <ns0:srgbClr val="4BACC6"/>
-      </ns0:accent5>
-      <ns0:accent6>
-        <ns0:srgbClr val="F79646"/>
-      </ns0:accent6>
-      <ns0:hlink>
-        <ns0:srgbClr val="0000FF"/>
-      </ns0:hlink>
-      <ns0:folHlink>
-        <ns0:srgbClr val="800080"/>
-      </ns0:folHlink>
-    </ns0:clrScheme>
-    <ns0:fontScheme name="Office">
-      <ns0:majorFont>
-        <ns0:latin typeface="Cambria"/>
-        <ns0:ea typeface=""/>
-        <ns0:cs typeface=""/>
-        <ns0:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <ns0:font script="Hang" typeface="맑은 고딕"/>
-        <ns0:font script="Hans" typeface="宋体"/>
-        <ns0:font script="Hant" typeface="新細明體"/>
-        <ns0:font script="Arab" typeface="Times New Roman"/>
-        <ns0:font script="Hebr" typeface="Times New Roman"/>
-        <ns0:font script="Thai" typeface="Tahoma"/>
-        <ns0:font script="Ethi" typeface="Nyala"/>
-        <ns0:font script="Beng" typeface="Vrinda"/>
-        <ns0:font script="Gujr" typeface="Shruti"/>
-        <ns0:font script="Khmr" typeface="MoolBoran"/>
-        <ns0:font script="Knda" typeface="Tunga"/>
-        <ns0:font script="Guru" typeface="Raavi"/>
-        <ns0:font script="Cans" typeface="Euphemia"/>
-        <ns0:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <ns0:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <ns0:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <ns0:font script="Thaa" typeface="MV Boli"/>
-        <ns0:font script="Deva" typeface="Mangal"/>
-        <ns0:font script="Telu" typeface="Gautami"/>
-        <ns0:font script="Taml" typeface="Latha"/>
-        <ns0:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <ns0:font script="Orya" typeface="Kalinga"/>
-        <ns0:font script="Mlym" typeface="Kartika"/>
-        <ns0:font script="Laoo" typeface="DokChampa"/>
-        <ns0:font script="Sinh" typeface="Iskoola Pota"/>
-        <ns0:font script="Mong" typeface="Mongolian Baiti"/>
-        <ns0:font script="Viet" typeface="Times New Roman"/>
-        <ns0:font script="Uigh" typeface="Microsoft Uighur"/>
-      </ns0:majorFont>
-      <ns0:minorFont>
-        <ns0:latin typeface="Calibri"/>
-        <ns0:ea typeface=""/>
-        <ns0:cs typeface=""/>
-        <ns0:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <ns0:font script="Hang" typeface="맑은 고딕"/>
-        <ns0:font script="Hans" typeface="宋体"/>
-        <ns0:font script="Hant" typeface="新細明體"/>
-        <ns0:font script="Arab" typeface="Arial"/>
-        <ns0:font script="Hebr" typeface="Arial"/>
-        <ns0:font script="Thai" typeface="Tahoma"/>
-        <ns0:font script="Ethi" typeface="Nyala"/>
-        <ns0:font script="Beng" typeface="Vrinda"/>
-        <ns0:font script="Gujr" typeface="Shruti"/>
-        <ns0:font script="Khmr" typeface="DaunPenh"/>
-        <ns0:font script="Knda" typeface="Tunga"/>
-        <ns0:font script="Guru" typeface="Raavi"/>
-        <ns0:font script="Cans" typeface="Euphemia"/>
-        <ns0:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <ns0:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <ns0:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <ns0:font script="Thaa" typeface="MV Boli"/>
-        <ns0:font script="Deva" typeface="Mangal"/>
-        <ns0:font script="Telu" typeface="Gautami"/>
-        <ns0:font script="Taml" typeface="Latha"/>
-        <ns0:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <ns0:font script="Orya" typeface="Kalinga"/>
-        <ns0:font script="Mlym" typeface="Kartika"/>
-        <ns0:font script="Laoo" typeface="DokChampa"/>
-        <ns0:font script="Sinh" typeface="Iskoola Pota"/>
-        <ns0:font script="Mong" typeface="Mongolian Baiti"/>
-        <ns0:font script="Viet" typeface="Arial"/>
-        <ns0:font script="Uigh" typeface="Microsoft Uighur"/>
-      </ns0:minorFont>
-    </ns0:fontScheme>
-    <ns0:fmtScheme name="Office">
-      <ns0:fillStyleLst>
-        <ns0:solidFill>
-          <ns0:schemeClr val="phClr"/>
-        </ns0:solidFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="50000"/>
-                <ns0:satMod val="300000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="35000">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="37000"/>
-                <ns0:satMod val="300000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="15000"/>
-                <ns0:satMod val="350000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:lin ang="16200000" scaled="1"/>
-        </ns0:gradFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="51000"/>
-                <ns0:satMod val="130000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="80000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="93000"/>
-                <ns0:satMod val="130000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="94000"/>
-                <ns0:satMod val="135000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:lin ang="16200000" scaled="0"/>
-        </ns0:gradFill>
-      </ns0:fillStyleLst>
-      <ns0:lnStyleLst>
-        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
-          <ns0:solidFill>
-            <ns0:schemeClr val="phClr">
-              <ns0:shade val="95000"/>
-              <ns0:satMod val="105000"/>
-            </ns0:schemeClr>
-          </ns0:solidFill>
-          <ns0:prstDash val="solid"/>
-        </ns0:ln>
-        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
-          <ns0:solidFill>
-            <ns0:schemeClr val="phClr"/>
-          </ns0:solidFill>
-          <ns0:prstDash val="solid"/>
-        </ns0:ln>
-        <ns0:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
-          <ns0:solidFill>
-            <ns0:schemeClr val="phClr"/>
-          </ns0:solidFill>
-          <ns0:prstDash val="solid"/>
-        </ns0:ln>
-      </ns0:lnStyleLst>
-      <ns0:effectStyleLst>
-        <ns0:effectStyle>
-          <ns0:effectLst>
-            <ns0:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
-              <ns0:srgbClr val="000000">
-                <ns0:alpha val="38000"/>
-              </ns0:srgbClr>
-            </ns0:outerShdw>
-          </ns0:effectLst>
-        </ns0:effectStyle>
-        <ns0:effectStyle>
-          <ns0:effectLst>
-            <ns0:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
-              <ns0:srgbClr val="000000">
-                <ns0:alpha val="35000"/>
-              </ns0:srgbClr>
-            </ns0:outerShdw>
-          </ns0:effectLst>
-        </ns0:effectStyle>
-        <ns0:effectStyle>
-          <ns0:effectLst>
-            <ns0:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
-              <ns0:srgbClr val="000000">
-                <ns0:alpha val="35000"/>
-              </ns0:srgbClr>
-            </ns0:outerShdw>
-          </ns0:effectLst>
-          <ns0:scene3d>
-            <ns0:camera prst="orthographicFront">
-              <ns0:rot lat="0" lon="0" rev="0"/>
-            </ns0:camera>
-            <ns0:lightRig dir="t" rig="threePt">
-              <ns0:rot lat="0" lon="0" rev="1200000"/>
-            </ns0:lightRig>
-          </ns0:scene3d>
-          <ns0:sp3d>
-            <ns0:bevelT h="25400" w="63500"/>
-          </ns0:sp3d>
-        </ns0:effectStyle>
-      </ns0:effectStyleLst>
-      <ns0:bgFillStyleLst>
-        <ns0:solidFill>
-          <ns0:schemeClr val="phClr"/>
-        </ns0:solidFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="40000"/>
-                <ns0:satMod val="350000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="40000">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="45000"/>
-                <ns0:shade val="99000"/>
-                <ns0:satMod val="350000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="20000"/>
-                <ns0:satMod val="255000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:path path="circle">
-            <ns0:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
-          </ns0:path>
-        </ns0:gradFill>
-        <ns0:gradFill rotWithShape="1">
-          <ns0:gsLst>
-            <ns0:gs pos="0">
-              <ns0:schemeClr val="phClr">
-                <ns0:tint val="80000"/>
-                <ns0:satMod val="300000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-            <ns0:gs pos="100000">
-              <ns0:schemeClr val="phClr">
-                <ns0:shade val="30000"/>
-                <ns0:satMod val="200000"/>
-              </ns0:schemeClr>
-            </ns0:gs>
-          </ns0:gsLst>
-          <ns0:path path="circle">
-            <ns0:fillToRect b="50000" l="50000" r="50000" t="50000"/>
-          </ns0:path>
-        </ns0:gradFill>
-      </ns0:bgFillStyleLst>
-    </ns0:fmtScheme>
-  </ns0:themeElements>
-  <ns0:objectDefaults/>
-  <ns0:extraClrSchemeLst/>
-</ns0:theme>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -616,21 +611,24 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -648,13 +646,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -662,13 +660,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -676,27 +674,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -704,34 +702,40 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -764,13 +768,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -793,13 +797,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -822,13 +826,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -851,13 +855,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -880,13 +884,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -909,13 +913,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -938,13 +942,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -967,13 +971,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -995,5 +999,11 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>